--- a/feedback-examples.xlsx
+++ b/feedback-examples.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luiescal2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Maestria\Prompt Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2398BFF4-0197-2141-90B6-81E500B95776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6858722-86D3-4777-915C-87D086268F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16180" xr2:uid="{5DBF76B3-C36E-1D48-A78D-DB4B13B12EA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5DBF76B3-C36E-1D48-A78D-DB4B13B12EA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$54</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Feedback</t>
   </si>
@@ -197,6 +190,15 @@
   </si>
   <si>
     <t>Katrina, I appreciate your enthusiasm for collaboration and asking for help when you need it. I believe in your resourcefulness and would like to see you try to find the answer on your own rather than turning to others immediately. I want to make sure our team does not get too distracted. You can take an extra 10 minutes to search online or look elsewhere. Come to me if you are still having trouble, and we can work on finding a solution</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
   </si>
 </sst>
 </file>
@@ -255,7 +257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -551,288 +553,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7DEBC9-C74F-354B-B787-B3CC92F760DC}">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="79.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="102" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="102" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="102" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="119" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B54" xr:uid="{DE7DEBC9-C74F-354B-B787-B3CC92F760DC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>